--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v1.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -433,7 +433,7 @@
     <t>max (M)</t>
   </si>
   <si>
-    <t>Fluxes (umol/gdcw/h)</t>
+    <t>Fluxes (umol/gCDW/h)</t>
   </si>
   <si>
     <t>MBo10_mean</t>
@@ -648,7 +648,7 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -778,7 +778,7 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v1.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -481,10 +481,10 @@
     <t>activators</t>
   </si>
   <si>
-    <t>negative effector</t>
+    <t>negative effectors</t>
   </si>
   <si>
-    <t>positive effector</t>
+    <t>positive effectors</t>
   </si>
   <si>
     <t>allosteric</t>
@@ -493,40 +493,40 @@
     <t>subunits</t>
   </si>
   <si>
-    <t>mechanism_ref_type</t>
+    <t>mechanism_refs_type</t>
   </si>
   <si>
-    <t>mechanism_ref</t>
+    <t>mechanism_refs</t>
   </si>
   <si>
-    <t>inhibitors_ref_type</t>
+    <t>inhibitors_refs_type</t>
   </si>
   <si>
-    <t>inhibitors_ref</t>
+    <t>inhibitors_refs</t>
   </si>
   <si>
-    <t>activators_ref_type</t>
+    <t>activators_refs_type</t>
   </si>
   <si>
-    <t>activators_ref</t>
+    <t>activators_refs</t>
   </si>
   <si>
-    <t>negative_effectors_ref_type</t>
+    <t>negative_effectors_refs_type</t>
   </si>
   <si>
-    <t>negative_effectors_ref</t>
+    <t>negative_effectors_refs</t>
   </si>
   <si>
-    <t>positive_effectors_ref_type</t>
+    <t>positive_effectors_refs_type</t>
   </si>
   <si>
-    <t>positive_effectors_ref</t>
+    <t>positive_effectors_refs</t>
   </si>
   <si>
-    <t>subunits_ref_type</t>
+    <t>subunits_refs_type</t>
   </si>
   <si>
-    <t>subunits_ref</t>
+    <t>subunits_refs</t>
   </si>
   <si>
     <t>comments</t>
@@ -539,7 +539,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -565,6 +565,14 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -620,13 +628,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -649,7 +665,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="1:1 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -778,8 +794,8 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1656,7 +1672,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L43" activeCellId="0" sqref="L43"/>
+      <selection pane="topLeft" activeCell="L43" activeCellId="1" sqref="1:1 L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2383,7 +2399,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3137,8 +3153,8 @@
   </sheetPr>
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3146,41 +3162,41 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>153</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -6865,7 +6881,7 @@
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14792,7 +14808,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15703,7 +15719,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16580,7 +16596,7 @@
   <dimension ref="A2:A51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16857,7 +16873,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17144,7 +17160,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17431,7 +17447,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18008,7 +18024,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+      <selection pane="topLeft" activeCell="F27" activeCellId="1" sqref="1:1 F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v1.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="167">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -403,6 +403,9 @@
     <t>fixed?</t>
   </si>
   <si>
+    <t>measured?</t>
+  </si>
+  <si>
     <t>reaction name</t>
   </si>
   <si>
@@ -665,7 +668,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="1:1 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="F1:F52 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -795,7 +798,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1:F52 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -805,19 +808,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1672,7 +1675,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L43" activeCellId="1" sqref="1:1 L43"/>
+      <selection pane="topLeft" activeCell="L43" activeCellId="1" sqref="F1:F52 L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1682,16 +1685,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2399,7 +2402,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1:F52 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2409,16 +2412,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3153,8 +3156,8 @@
   </sheetPr>
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1:F52 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3164,76 +3167,76 @@
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6881,7 +6884,7 @@
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1:F52 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14805,10 +14808,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14816,7 +14819,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
@@ -14832,8 +14835,11 @@
       <c r="E1" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -14849,8 +14855,11 @@
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -14866,8 +14875,11 @@
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -14883,8 +14895,11 @@
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -14900,8 +14915,11 @@
       <c r="E5" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -14917,8 +14935,11 @@
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -14934,8 +14955,11 @@
       <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -14951,8 +14975,11 @@
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -14968,8 +14995,11 @@
       <c r="E9" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -14985,8 +15015,11 @@
       <c r="E10" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -15002,8 +15035,11 @@
       <c r="E11" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -15019,8 +15055,11 @@
       <c r="E12" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -15036,8 +15075,11 @@
       <c r="E13" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -15053,8 +15095,11 @@
       <c r="E14" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -15070,8 +15115,11 @@
       <c r="E15" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -15087,8 +15135,11 @@
       <c r="E16" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -15104,8 +15155,11 @@
       <c r="E17" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -15121,8 +15175,11 @@
       <c r="E18" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -15138,8 +15195,11 @@
       <c r="E19" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -15155,8 +15215,11 @@
       <c r="E20" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -15172,8 +15235,11 @@
       <c r="E21" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -15189,8 +15255,11 @@
       <c r="E22" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -15206,8 +15275,11 @@
       <c r="E23" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -15223,8 +15295,11 @@
       <c r="E24" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -15240,8 +15315,11 @@
       <c r="E25" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -15257,8 +15335,11 @@
       <c r="E26" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -15274,8 +15355,11 @@
       <c r="E27" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
@@ -15291,8 +15375,11 @@
       <c r="E28" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
@@ -15308,8 +15395,11 @@
       <c r="E29" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
@@ -15325,8 +15415,11 @@
       <c r="E30" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
@@ -15342,8 +15435,11 @@
       <c r="E31" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -15359,8 +15455,11 @@
       <c r="E32" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
@@ -15376,8 +15475,11 @@
       <c r="E33" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
@@ -15393,8 +15495,11 @@
       <c r="E34" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
@@ -15410,8 +15515,11 @@
       <c r="E35" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
@@ -15427,8 +15535,11 @@
       <c r="E36" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
@@ -15444,8 +15555,11 @@
       <c r="E37" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>54</v>
       </c>
@@ -15461,8 +15575,11 @@
       <c r="E38" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
@@ -15478,8 +15595,11 @@
       <c r="E39" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -15495,8 +15615,11 @@
       <c r="E40" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
@@ -15512,8 +15635,11 @@
       <c r="E41" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F41" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
@@ -15529,8 +15655,11 @@
       <c r="E42" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
@@ -15546,8 +15675,11 @@
       <c r="E43" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F43" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
@@ -15563,8 +15695,11 @@
       <c r="E44" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F44" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -15580,8 +15715,11 @@
       <c r="E45" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
@@ -15597,8 +15735,11 @@
       <c r="E46" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
@@ -15614,8 +15755,11 @@
       <c r="E47" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
@@ -15631,8 +15775,11 @@
       <c r="E48" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F48" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -15648,8 +15795,11 @@
       <c r="E49" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F49" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
@@ -15665,8 +15815,11 @@
       <c r="E50" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F50" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -15682,8 +15835,11 @@
       <c r="E51" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F51" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>68</v>
       </c>
@@ -15697,6 +15853,9 @@
         <v>0</v>
       </c>
       <c r="E52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15719,7 +15878,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1:F52 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15732,16 +15891,16 @@
         <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16596,7 +16755,7 @@
   <dimension ref="A2:A51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1:F52 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16873,7 +17032,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1:F52 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16883,7 +17042,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17160,7 +17319,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1:F52 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17170,7 +17329,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17447,7 +17606,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1:F52 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17457,13 +17616,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18024,7 +18183,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="1" sqref="1:1 F27"/>
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F1:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -18034,13 +18193,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v1.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,507 +32,492 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="162">
   <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
   <si>
-    <t>Model name</t>
+    <t xml:space="preserve">Model name</t>
   </si>
   <si>
-    <t>model_v1</t>
+    <t xml:space="preserve">model_v1</t>
   </si>
   <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
   </si>
   <si>
-    <t>ORACLE</t>
+    <t xml:space="preserve">ORACLE</t>
   </si>
   <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
   </si>
   <si>
-    <t>FMINCON</t>
+    <t xml:space="preserve">FMINCON</t>
   </si>
   <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
   </si>
   <si>
-    <t>Number of model structures</t>
+    <t xml:space="preserve">Number of model structures</t>
   </si>
   <si>
-    <t>Number of particles</t>
+    <t xml:space="preserve">Number of particles</t>
   </si>
   <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
   </si>
   <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
   </si>
   <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
-    <t>rxn ID</t>
+    <t xml:space="preserve">rxn ID</t>
   </si>
   <si>
-    <t>m_glc__D_e</t>
+    <t xml:space="preserve">m_glc__D_e</t>
   </si>
   <si>
-    <t>m_glc__D_p</t>
+    <t xml:space="preserve">m_glc__D_p</t>
   </si>
   <si>
-    <t>m_atp_c</t>
+    <t xml:space="preserve">m_atp_c</t>
   </si>
   <si>
-    <t>m_glc__D_c</t>
+    <t xml:space="preserve">m_glc__D_c</t>
   </si>
   <si>
-    <t>m_adp_c</t>
+    <t xml:space="preserve">m_adp_c</t>
   </si>
   <si>
-    <t>m_pi_c</t>
+    <t xml:space="preserve">m_pi_c</t>
   </si>
   <si>
-    <t>m_g6p_c</t>
+    <t xml:space="preserve">m_g6p_c</t>
   </si>
   <si>
-    <t>m_glcn_p</t>
+    <t xml:space="preserve">m_glcn_p</t>
   </si>
   <si>
-    <t>m_glcn_c</t>
+    <t xml:space="preserve">m_glcn_c</t>
   </si>
   <si>
-    <t>m_6pgc_c</t>
+    <t xml:space="preserve">m_6pgc_c</t>
   </si>
   <si>
-    <t>m_2dhglcn_p</t>
+    <t xml:space="preserve">m_2dhglcn_p</t>
   </si>
   <si>
-    <t>m_2dhglcn_c</t>
+    <t xml:space="preserve">m_2dhglcn_c</t>
   </si>
   <si>
-    <t>m_6p2dhglcn_c</t>
+    <t xml:space="preserve">m_6p2dhglcn_c</t>
   </si>
   <si>
-    <t>m_nadh_c</t>
+    <t xml:space="preserve">m_nadh_c</t>
   </si>
   <si>
-    <t>m_nad_c</t>
+    <t xml:space="preserve">m_nad_c</t>
   </si>
   <si>
-    <t>m_nadph_c</t>
+    <t xml:space="preserve">m_nadph_c</t>
   </si>
   <si>
-    <t>m_nadp_c</t>
+    <t xml:space="preserve">m_nadp_c</t>
   </si>
   <si>
-    <t>m_q8_c</t>
+    <t xml:space="preserve">m_q8_c</t>
   </si>
   <si>
-    <t>m_q8h2_c</t>
+    <t xml:space="preserve">m_q8h2_c</t>
   </si>
   <si>
-    <t>m_6pgl_c</t>
+    <t xml:space="preserve">m_6pgl_c</t>
   </si>
   <si>
-    <t>m_co2_c</t>
+    <t xml:space="preserve">m_co2_c</t>
   </si>
   <si>
-    <t>m_ru5p__D_c</t>
+    <t xml:space="preserve">m_ru5p__D_c</t>
   </si>
   <si>
-    <t>m_r5p_c</t>
+    <t xml:space="preserve">m_r5p_c</t>
   </si>
   <si>
-    <t>m_xu5p__D_c</t>
+    <t xml:space="preserve">m_xu5p__D_c</t>
   </si>
   <si>
-    <t>m_g3p_c</t>
+    <t xml:space="preserve">m_g3p_c</t>
   </si>
   <si>
-    <t>m_s7p_c</t>
+    <t xml:space="preserve">m_s7p_c</t>
   </si>
   <si>
-    <t>m_e4p_c</t>
+    <t xml:space="preserve">m_e4p_c</t>
   </si>
   <si>
-    <t>m_f6p_c</t>
+    <t xml:space="preserve">m_f6p_c</t>
   </si>
   <si>
-    <t>m_2ddg6p_c</t>
+    <t xml:space="preserve">m_2ddg6p_c</t>
   </si>
   <si>
-    <t>m_pyr_c</t>
+    <t xml:space="preserve">m_pyr_c</t>
   </si>
   <si>
-    <t>m_fdp_c</t>
+    <t xml:space="preserve">m_fdp_c</t>
   </si>
   <si>
-    <t>m_dhap_c</t>
+    <t xml:space="preserve">m_dhap_c</t>
   </si>
   <si>
-    <t>m_13dpg_c</t>
+    <t xml:space="preserve">m_13dpg_c</t>
   </si>
   <si>
-    <t>m_3pg_c</t>
+    <t xml:space="preserve">m_3pg_c</t>
   </si>
   <si>
-    <t>m_2pg_c</t>
+    <t xml:space="preserve">m_2pg_c</t>
   </si>
   <si>
-    <t>m_pep_c</t>
+    <t xml:space="preserve">m_pep_c</t>
   </si>
   <si>
-    <t>m_h2o2_c</t>
+    <t xml:space="preserve">m_h2o2_c</t>
   </si>
   <si>
-    <t>m_gthrd_c</t>
+    <t xml:space="preserve">m_gthrd_c</t>
   </si>
   <si>
-    <t>m_gthox_c</t>
+    <t xml:space="preserve">m_gthox_c</t>
   </si>
   <si>
-    <t>m_h2o_c</t>
+    <t xml:space="preserve">m_h2o_c</t>
   </si>
   <si>
-    <t>m_pyr_e</t>
+    <t xml:space="preserve">m_pyr_e</t>
   </si>
   <si>
-    <t>m_pep_e</t>
+    <t xml:space="preserve">m_pep_e</t>
   </si>
   <si>
-    <t>m_h2o2_e</t>
+    <t xml:space="preserve">m_h2o2_e</t>
   </si>
   <si>
-    <t>m_g6p_e</t>
+    <t xml:space="preserve">m_g6p_e</t>
   </si>
   <si>
-    <t>m_6pgc_e</t>
+    <t xml:space="preserve">m_6pgc_e</t>
   </si>
   <si>
-    <t>m_r5p_e</t>
+    <t xml:space="preserve">m_r5p_e</t>
   </si>
   <si>
-    <t>m_xu5p__D_e</t>
+    <t xml:space="preserve">m_xu5p__D_e</t>
   </si>
   <si>
-    <t>m_g3p_e</t>
+    <t xml:space="preserve">m_g3p_e</t>
   </si>
   <si>
-    <t>m_e4p_e</t>
+    <t xml:space="preserve">m_e4p_e</t>
   </si>
   <si>
-    <t>m_f6p_e</t>
+    <t xml:space="preserve">m_f6p_e</t>
   </si>
   <si>
-    <t>m_3pg_e</t>
+    <t xml:space="preserve">m_3pg_e</t>
   </si>
   <si>
-    <t>R_GLCtex</t>
+    <t xml:space="preserve">R_GLCtex</t>
   </si>
   <si>
-    <t>R_GLCabcpp</t>
+    <t xml:space="preserve">R_GLCabcpp</t>
   </si>
   <si>
-    <t>R_GLK</t>
+    <t xml:space="preserve">R_GLK</t>
   </si>
   <si>
-    <t>R_GLCNt2rpp</t>
+    <t xml:space="preserve">R_GLCNt2rpp</t>
   </si>
   <si>
-    <t>R_GNK</t>
+    <t xml:space="preserve">R_GNK</t>
   </si>
   <si>
-    <t>R_2DHGLCNkt_tpp</t>
+    <t xml:space="preserve">R_2DHGLCNkt_tpp</t>
   </si>
   <si>
-    <t>R_2DHGLCK</t>
+    <t xml:space="preserve">R_2DHGLCK</t>
   </si>
   <si>
-    <t>R_PGLCNDH_NAD</t>
+    <t xml:space="preserve">R_PGLCNDH_NAD</t>
   </si>
   <si>
-    <t>R_PGLCNDH_NADP</t>
+    <t xml:space="preserve">R_PGLCNDH_NADP</t>
   </si>
   <si>
-    <t>R_GLCDpp</t>
+    <t xml:space="preserve">R_GLCDpp</t>
   </si>
   <si>
-    <t>R_GAD2ktpp</t>
+    <t xml:space="preserve">R_GAD2ktpp</t>
   </si>
   <si>
-    <t>R_G6PDH2</t>
+    <t xml:space="preserve">R_G6PDH2</t>
   </si>
   <si>
-    <t>R_G6PDH2_NAD</t>
+    <t xml:space="preserve">R_G6PDH2_NAD</t>
   </si>
   <si>
-    <t>R_G6PDH2_NADP</t>
+    <t xml:space="preserve">R_G6PDH2_NADP</t>
   </si>
   <si>
-    <t>R_PGL</t>
+    <t xml:space="preserve">R_PGL</t>
   </si>
   <si>
-    <t>R_GND_NAD</t>
+    <t xml:space="preserve">R_GND_NAD</t>
   </si>
   <si>
-    <t>R_GND_NADP</t>
+    <t xml:space="preserve">R_GND_NADP</t>
   </si>
   <si>
-    <t>R_RPI</t>
+    <t xml:space="preserve">R_RPI</t>
   </si>
   <si>
-    <t>R_RPE</t>
+    <t xml:space="preserve">R_RPE</t>
   </si>
   <si>
-    <t>R_TKT1</t>
+    <t xml:space="preserve">R_TKT1</t>
   </si>
   <si>
-    <t>R_TKT2</t>
+    <t xml:space="preserve">R_TKT2</t>
   </si>
   <si>
-    <t>R_TALA</t>
+    <t xml:space="preserve">R_TALA</t>
   </si>
   <si>
-    <t>R_EDD</t>
+    <t xml:space="preserve">R_EDD</t>
   </si>
   <si>
-    <t>R_EDA</t>
+    <t xml:space="preserve">R_EDA</t>
   </si>
   <si>
-    <t>R_PGI</t>
+    <t xml:space="preserve">R_PGI</t>
   </si>
   <si>
-    <t>R_FBP</t>
+    <t xml:space="preserve">R_FBP</t>
   </si>
   <si>
-    <t>R_FBA</t>
+    <t xml:space="preserve">R_FBA</t>
   </si>
   <si>
-    <t>R_TPI</t>
+    <t xml:space="preserve">R_TPI</t>
   </si>
   <si>
-    <t>R_GAPD</t>
+    <t xml:space="preserve">R_GAPD</t>
   </si>
   <si>
-    <t>R_PGK</t>
+    <t xml:space="preserve">R_PGK</t>
   </si>
   <si>
-    <t>R_PGM</t>
+    <t xml:space="preserve">R_PGM</t>
   </si>
   <si>
-    <t>R_ENO</t>
+    <t xml:space="preserve">R_ENO</t>
   </si>
   <si>
-    <t>R_PYK</t>
+    <t xml:space="preserve">R_PYK</t>
   </si>
   <si>
-    <t>R_GTHPi</t>
+    <t xml:space="preserve">R_GTHPi</t>
   </si>
   <si>
-    <t>R_GTHOr</t>
+    <t xml:space="preserve">R_GTHOr</t>
   </si>
   <si>
-    <t>R_AXPr</t>
+    <t xml:space="preserve">R_AXPr</t>
   </si>
   <si>
-    <t>R_NADHr</t>
+    <t xml:space="preserve">R_NADHr</t>
   </si>
   <si>
-    <t>R_NADPHr</t>
+    <t xml:space="preserve">R_NADPHr</t>
   </si>
   <si>
-    <t>R_EX_pyr</t>
+    <t xml:space="preserve">R_EX_pyr</t>
   </si>
   <si>
-    <t>R_EX_pep</t>
+    <t xml:space="preserve">R_EX_pep</t>
   </si>
   <si>
-    <t>R_EX_h2o2</t>
+    <t xml:space="preserve">R_EX_h2o2</t>
   </si>
   <si>
-    <t>R_EX_g6p</t>
+    <t xml:space="preserve">R_EX_g6p</t>
   </si>
   <si>
-    <t>R_EX_6pgc</t>
+    <t xml:space="preserve">R_EX_6pgc</t>
   </si>
   <si>
-    <t>R_EX_r5p</t>
+    <t xml:space="preserve">R_EX_r5p</t>
   </si>
   <si>
-    <t>R_EX_xu5p__D</t>
+    <t xml:space="preserve">R_EX_xu5p__D</t>
   </si>
   <si>
-    <t>R_EX_g3p</t>
+    <t xml:space="preserve">R_EX_g3p</t>
   </si>
   <si>
-    <t>R_EX_e4p</t>
+    <t xml:space="preserve">R_EX_e4p</t>
   </si>
   <si>
-    <t>R_EX_f6p</t>
+    <t xml:space="preserve">R_EX_f6p</t>
   </si>
   <si>
-    <t>R_EX_3pg</t>
+    <t xml:space="preserve">R_EX_3pg</t>
   </si>
   <si>
-    <t>ID</t>
+    <t xml:space="preserve">metabolite ID</t>
   </si>
   <si>
-    <t>Metabolite name</t>
+    <t xml:space="preserve">Metabolite name</t>
   </si>
   <si>
-    <t>balanced?</t>
+    <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t>active?</t>
+    <t xml:space="preserve">active?</t>
   </si>
   <si>
-    <t>fixed?</t>
+    <t xml:space="preserve">constant?</t>
   </si>
   <si>
-    <t>measured?</t>
+    <t xml:space="preserve">measured?</t>
   </si>
   <si>
-    <t>reaction name</t>
+    <t xml:space="preserve">reaction ID</t>
   </si>
   <si>
-    <t>transportRxn?</t>
+    <t xml:space="preserve">reaction name</t>
   </si>
   <si>
-    <t>modelled?</t>
+    <t xml:space="preserve">transport reaction?</t>
   </si>
   <si>
-    <t>isoenzymes</t>
+    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
-    <t>met</t>
+    <t xml:space="preserve">isoenzymes</t>
   </si>
   <si>
-    <t>rxn</t>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
   </si>
   <si>
-    <t>∆Gr'_min (kJ/mol)</t>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
   </si>
   <si>
-    <t>∆Gr'_max (kJ/mol)</t>
+    <t xml:space="preserve">min (M)</t>
   </si>
   <si>
-    <t>min (M)</t>
+    <t xml:space="preserve">max (M)</t>
   </si>
   <si>
-    <t>max (M)</t>
+    <t xml:space="preserve">vref_mean (mmol/L/h)</t>
   </si>
   <si>
-    <t>Fluxes (umol/gCDW/h)</t>
+    <t xml:space="preserve">vref_std (mmol/L/h)</t>
   </si>
   <si>
-    <t>MBo10_mean</t>
+    <t xml:space="preserve">reaction/enzyme ID</t>
   </si>
   <si>
-    <t>MBo10_std</t>
+    <t xml:space="preserve">lower_bound</t>
   </si>
   <si>
-    <t>MBo10_mean2</t>
+    <t xml:space="preserve">mean</t>
   </si>
   <si>
-    <t>MBo10_std2</t>
+    <t xml:space="preserve">upper_bound</t>
   </si>
   <si>
-    <t>enzyme/rxn</t>
+    <t xml:space="preserve">kinetic mechanism</t>
   </si>
   <si>
-    <t>MBo10_LB2</t>
+    <t xml:space="preserve">substrate order</t>
   </si>
   <si>
-    <t>MBo10_meas2</t>
+    <t xml:space="preserve">product order</t>
   </si>
   <si>
-    <t>MBo10_UB2</t>
+    <t xml:space="preserve">promiscuous</t>
   </si>
   <si>
-    <t>reaction ID</t>
+    <t xml:space="preserve">inhibitors</t>
   </si>
   <si>
-    <t>kinetic mechanism</t>
+    <t xml:space="preserve">activators</t>
   </si>
   <si>
-    <t>substrate order</t>
+    <t xml:space="preserve">negative effectors</t>
   </si>
   <si>
-    <t>product order</t>
+    <t xml:space="preserve">positive effectors</t>
   </si>
   <si>
-    <t>promiscuous</t>
+    <t xml:space="preserve">allosteric</t>
   </si>
   <si>
-    <t>inhibitors</t>
+    <t xml:space="preserve">subunits</t>
   </si>
   <si>
-    <t>activators</t>
+    <t xml:space="preserve">mechanism_refs_type</t>
   </si>
   <si>
-    <t>negative effectors</t>
+    <t xml:space="preserve">mechanism_refs</t>
   </si>
   <si>
-    <t>positive effectors</t>
+    <t xml:space="preserve">inhibitors_refs_type</t>
   </si>
   <si>
-    <t>allosteric</t>
+    <t xml:space="preserve">inhibitors_refs</t>
   </si>
   <si>
-    <t>subunits</t>
+    <t xml:space="preserve">activators_refs_type</t>
   </si>
   <si>
-    <t>mechanism_refs_type</t>
+    <t xml:space="preserve">activators_refs</t>
   </si>
   <si>
-    <t>mechanism_refs</t>
+    <t xml:space="preserve">negative_effectors_refs_type</t>
   </si>
   <si>
-    <t>inhibitors_refs_type</t>
+    <t xml:space="preserve">negative_effectors_refs</t>
   </si>
   <si>
-    <t>inhibitors_refs</t>
+    <t xml:space="preserve">positive_effectors_refs_type</t>
   </si>
   <si>
-    <t>activators_refs_type</t>
+    <t xml:space="preserve">positive_effectors_refs</t>
   </si>
   <si>
-    <t>activators_refs</t>
+    <t xml:space="preserve">subunits_refs_type</t>
   </si>
   <si>
-    <t>negative_effectors_refs_type</t>
+    <t xml:space="preserve">subunits_refs</t>
   </si>
   <si>
-    <t>negative_effectors_refs</t>
-  </si>
-  <si>
-    <t>positive_effectors_refs_type</t>
-  </si>
-  <si>
-    <t>positive_effectors_refs</t>
-  </si>
-  <si>
-    <t>subunits_refs_type</t>
-  </si>
-  <si>
-    <t>subunits_refs</t>
-  </si>
-  <si>
-    <t>comments</t>
+    <t xml:space="preserve">comments</t>
   </si>
 </sst>
 </file>
@@ -540,9 +525,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -568,14 +553,6 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -631,21 +608,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -667,13 +636,13 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="F1:F52 B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -782,7 +751,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -797,30 +766,30 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1:F52 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1659,7 +1628,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1674,27 +1643,27 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L43" activeCellId="1" sqref="F1:F52 L43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2386,7 +2355,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2401,27 +2370,27 @@
   </sheetPr>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1:F52 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,7 +3110,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3156,87 +3125,87 @@
   </sheetPr>
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1:F52 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6868,7 +6837,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6883,13 +6852,13 @@
   </sheetPr>
   <dimension ref="A1:AZ50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1:F52 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14795,7 +14764,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14810,13 +14779,13 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:F52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15862,7 +15831,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -15877,30 +15846,30 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1:F52 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16739,7 +16708,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -16754,18 +16723,18 @@
   </sheetPr>
   <dimension ref="A2:A51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1:F52 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17016,7 +16985,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -17031,18 +17000,18 @@
   </sheetPr>
   <dimension ref="A2:A53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1:F52 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17303,7 +17272,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -17318,18 +17287,18 @@
   </sheetPr>
   <dimension ref="A2:A53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1:F52 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17590,7 +17559,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -17605,24 +17574,24 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1:F52 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18167,7 +18136,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -18182,24 +18151,24 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F1:F52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18766,7 +18735,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v1.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v1.xlsx
@@ -5,18 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="thermoMets" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="mets" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="rxns" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="splitRatios" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="poolConst" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermo_ineq_constraints" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="thermoRxns" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
@@ -391,6 +391,12 @@
     <t xml:space="preserve">metabolite ID</t>
   </si>
   <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Metabolite name</t>
   </si>
   <si>
@@ -425,12 +431,6 @@
   </si>
   <si>
     <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max (M)</t>
   </si>
   <si>
     <t xml:space="preserve">vref_mean (mmol/L/h)</t>
@@ -777,7 +777,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>133</v>
@@ -3136,7 +3136,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>139</v>
@@ -14777,6 +14777,605 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -14793,19 +15392,19 @@
         <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15839,7 +16438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -15857,19 +16456,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16716,7 +17315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -16734,7 +17333,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16980,293 +17579,6 @@
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:A53"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -17572,7 +17884,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -17583,554 +17895,264 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>0</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -18149,20 +18171,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>131</v>
@@ -18171,565 +18193,543 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v1.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="164">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -439,6 +439,12 @@
     <t xml:space="preserve">vref_std (mmol/L/h)</t>
   </si>
   <si>
+    <t xml:space="preserve">vref_mean2 (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std2 (mmol/L/h)</t>
+  </si>
+  <si>
     <t xml:space="preserve">reaction/enzyme ID</t>
   </si>
   <si>
@@ -766,8 +772,8 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -786,10 +792,10 @@
         <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,16 +1660,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2384,13 +2390,13 @@
         <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3139,73 +3145,73 @@
         <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14779,7 +14785,7 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v1.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -643,7 +643,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="B50:B52 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -772,8 +772,8 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="1" sqref="B50:B52 G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1650,7 +1650,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B50:B52 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2377,7 +2377,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B50:B52 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3132,7 +3132,7 @@
   <dimension ref="A1:X50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B50:B52 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6859,7 +6859,7 @@
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B50:B52 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14785,8 +14785,8 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14810,7 +14810,8 @@
         <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0.1</v>
@@ -14821,7 +14822,8 @@
         <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0.1</v>
@@ -14832,7 +14834,8 @@
         <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0.1</v>
@@ -14843,7 +14846,8 @@
         <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0.1</v>
@@ -14854,7 +14858,8 @@
         <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0.1</v>
@@ -14865,7 +14870,8 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0.1</v>
@@ -14876,7 +14882,8 @@
         <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0.1</v>
@@ -14887,7 +14894,8 @@
         <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0.1</v>
@@ -14898,7 +14906,8 @@
         <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0.1</v>
@@ -14909,7 +14918,8 @@
         <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0.1</v>
@@ -14920,7 +14930,8 @@
         <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0.1</v>
@@ -14931,7 +14942,8 @@
         <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0.1</v>
@@ -14942,7 +14954,8 @@
         <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0.1</v>
@@ -14953,7 +14966,8 @@
         <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0.1</v>
@@ -14964,7 +14978,8 @@
         <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.1</v>
@@ -14975,7 +14990,8 @@
         <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.1</v>
@@ -14986,7 +15002,8 @@
         <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.1</v>
@@ -14997,7 +15014,8 @@
         <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.1</v>
@@ -15008,7 +15026,8 @@
         <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0.1</v>
@@ -15019,7 +15038,8 @@
         <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0.1</v>
@@ -15030,7 +15050,8 @@
         <v>38</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0.1</v>
@@ -15041,7 +15062,8 @@
         <v>39</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0.1</v>
@@ -15052,7 +15074,8 @@
         <v>40</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0.1</v>
@@ -15063,7 +15086,8 @@
         <v>41</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0.1</v>
@@ -15074,7 +15098,8 @@
         <v>42</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0.1</v>
@@ -15085,7 +15110,8 @@
         <v>43</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0.1</v>
@@ -15096,7 +15122,8 @@
         <v>44</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0.1</v>
@@ -15107,7 +15134,8 @@
         <v>45</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0.1</v>
@@ -15118,7 +15146,8 @@
         <v>46</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0.1</v>
@@ -15129,7 +15158,8 @@
         <v>47</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0.1</v>
@@ -15140,7 +15170,8 @@
         <v>48</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0.1</v>
@@ -15151,7 +15182,8 @@
         <v>49</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0.1</v>
@@ -15162,7 +15194,8 @@
         <v>50</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0.1</v>
@@ -15173,7 +15206,8 @@
         <v>51</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0.1</v>
@@ -15184,7 +15218,8 @@
         <v>52</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0.1</v>
@@ -15195,7 +15230,8 @@
         <v>53</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0.1</v>
@@ -15206,7 +15242,8 @@
         <v>54</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0.1</v>
@@ -15217,7 +15254,8 @@
         <v>55</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0.1</v>
@@ -15228,7 +15266,8 @@
         <v>56</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0.1</v>
@@ -15239,7 +15278,8 @@
         <v>57</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0.1</v>
@@ -15250,7 +15290,8 @@
         <v>58</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0.1</v>
@@ -15261,7 +15302,8 @@
         <v>59</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0.1</v>
@@ -15272,7 +15314,8 @@
         <v>60</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0.1</v>
@@ -15283,7 +15326,8 @@
         <v>61</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0.1</v>
@@ -15294,7 +15338,8 @@
         <v>62</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0.1</v>
@@ -15305,7 +15350,8 @@
         <v>63</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0.1</v>
@@ -15316,7 +15362,8 @@
         <v>64</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0.1</v>
@@ -15327,7 +15374,8 @@
         <v>65</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0.1</v>
@@ -15338,7 +15386,8 @@
         <v>66</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0.1</v>
@@ -15349,7 +15398,8 @@
         <v>67</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>0.1</v>
@@ -15360,7 +15410,8 @@
         <v>68</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>1E-012</v>
+        <f aca="false">10^-9</f>
+        <v>1E-009</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>0.1</v>
@@ -15385,7 +15436,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B50:B52 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16452,7 +16503,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="1" sqref="B50:B52 H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17329,7 +17380,7 @@
   <dimension ref="A2:A51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B50:B52 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17606,7 +17657,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B50:B52 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17893,7 +17944,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B50:B52 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18180,7 +18231,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B50:B52 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v1.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="160">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -592,7 +601,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -605,34 +614,37 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="62.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="62.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,60 +689,74 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -743,7 +769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -753,28 +779,25 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -788,7 +811,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -802,7 +825,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -816,7 +839,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -830,7 +853,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -844,7 +867,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -858,7 +881,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -872,7 +895,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -886,7 +909,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -900,7 +923,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -914,7 +937,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -928,7 +951,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -942,7 +965,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -956,7 +979,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -970,7 +993,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -984,7 +1007,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -998,7 +1021,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1012,7 +1035,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.99</v>
@@ -1026,7 +1049,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -1040,7 +1063,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -1054,7 +1077,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -1068,7 +1091,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -1082,7 +1105,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.99</v>
@@ -1096,7 +1119,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.99</v>
@@ -1110,7 +1133,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -1124,7 +1147,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.99</v>
@@ -1138,7 +1161,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.99</v>
@@ -1152,7 +1175,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.99</v>
@@ -1166,7 +1189,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.99</v>
@@ -1180,7 +1203,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.99</v>
@@ -1194,7 +1217,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.99</v>
@@ -1208,7 +1231,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.99</v>
@@ -1222,7 +1245,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.99</v>
@@ -1236,7 +1259,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.99</v>
@@ -1250,7 +1273,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.99</v>
@@ -1264,7 +1287,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.99</v>
@@ -1278,7 +1301,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.99</v>
@@ -1292,7 +1315,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.99</v>
@@ -1306,7 +1329,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.99</v>
@@ -1320,7 +1343,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.99</v>
@@ -1334,7 +1357,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.99</v>
@@ -1348,7 +1371,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -1362,7 +1385,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -1376,7 +1399,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -1390,7 +1413,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -1404,7 +1427,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -1418,7 +1441,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -1432,7 +1455,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -1446,7 +1469,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -1470,38 +1493,35 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -1515,7 +1535,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1529,7 +1549,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1543,7 +1563,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1557,7 +1577,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1571,7 +1591,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -1585,7 +1605,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -1599,7 +1619,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -1613,7 +1633,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -1627,7 +1647,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1641,7 +1661,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -1655,7 +1675,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -1669,7 +1689,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1683,7 +1703,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1697,7 +1717,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1711,7 +1731,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1725,7 +1745,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1739,7 +1759,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.99</v>
@@ -1753,7 +1773,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -1767,7 +1787,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -1781,7 +1801,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -1795,7 +1815,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -1809,7 +1829,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.99</v>
@@ -1823,7 +1843,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.99</v>
@@ -1837,7 +1857,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -1851,7 +1871,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.99</v>
@@ -1865,7 +1885,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.99</v>
@@ -1879,7 +1899,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.99</v>
@@ -1893,7 +1913,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.99</v>
@@ -1907,7 +1927,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.99</v>
@@ -1921,7 +1941,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.99</v>
@@ -1935,7 +1955,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.99</v>
@@ -1949,7 +1969,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.99</v>
@@ -1963,7 +1983,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.99</v>
@@ -1977,7 +1997,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.99</v>
@@ -1991,7 +2011,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.99</v>
@@ -2005,7 +2025,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.99</v>
@@ -2019,7 +2039,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.99</v>
@@ -2033,7 +2053,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.99</v>
@@ -2047,7 +2067,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.99</v>
@@ -2061,7 +2081,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.99</v>
@@ -2075,7 +2095,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -2089,7 +2109,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -2103,7 +2123,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -2117,7 +2137,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -2131,7 +2151,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -2145,7 +2165,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -2159,7 +2179,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -2173,7 +2193,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -2187,7 +2207,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.99</v>
@@ -2201,7 +2221,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.99</v>
@@ -2225,7 +2245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2235,88 +2255,85 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -2390,7 +2407,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -2464,7 +2481,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -2538,7 +2555,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -2612,7 +2629,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2686,7 +2703,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -2760,7 +2777,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2834,7 +2851,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2908,7 +2925,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2982,7 +2999,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -3056,7 +3073,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -3130,7 +3147,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -3204,7 +3221,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -3278,7 +3295,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -3352,7 +3369,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -3426,7 +3443,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -3500,7 +3517,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -3574,7 +3591,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -3648,7 +3665,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -3722,7 +3739,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -3796,7 +3813,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -3870,7 +3887,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -3944,7 +3961,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -4018,7 +4035,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -4092,7 +4109,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -4166,7 +4183,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -4240,7 +4257,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -4314,7 +4331,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -4388,7 +4405,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -4462,7 +4479,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -4536,7 +4553,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -4610,7 +4627,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -4684,7 +4701,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -4758,7 +4775,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -4832,7 +4849,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -4906,7 +4923,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -4980,7 +4997,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -5054,7 +5071,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -5128,7 +5145,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -5202,7 +5219,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -5276,7 +5293,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -5350,7 +5367,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -5424,7 +5441,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -5498,7 +5515,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -5572,7 +5589,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -5646,7 +5663,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -5720,7 +5737,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -5794,7 +5811,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -5868,7 +5885,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -5952,7 +5969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5962,172 +5979,169 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -6285,7 +6299,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -6443,7 +6457,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -6601,7 +6615,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -6759,7 +6773,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -6917,7 +6931,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -7075,7 +7089,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -7233,7 +7247,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -7391,7 +7405,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -7549,7 +7563,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -7707,7 +7721,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -7865,7 +7879,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -8023,7 +8037,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -8181,7 +8195,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -8339,7 +8353,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -8497,7 +8511,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -8655,7 +8669,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -8813,7 +8827,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -8971,7 +8985,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -9129,7 +9143,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -9287,7 +9301,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -9445,7 +9459,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -9603,7 +9617,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -9761,7 +9775,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -9919,7 +9933,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -10077,7 +10091,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -10235,7 +10249,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -10393,7 +10407,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -10551,7 +10565,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -10709,7 +10723,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -10867,7 +10881,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -11025,7 +11039,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -11183,7 +11197,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -11341,7 +11355,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -11499,7 +11513,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -11657,7 +11671,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -11815,7 +11829,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -11973,7 +11987,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -12131,7 +12145,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -12289,7 +12303,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -12447,7 +12461,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -12605,7 +12619,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -12763,7 +12777,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -12921,7 +12935,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -13079,7 +13093,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -13237,7 +13251,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -13395,7 +13409,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -13553,7 +13567,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -13711,7 +13725,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -13879,7 +13893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -13889,25 +13903,22 @@
       <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -13919,7 +13930,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -13931,7 +13942,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -13943,7 +13954,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -13955,7 +13966,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -13967,7 +13978,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -13979,7 +13990,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -13991,7 +14002,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14003,7 +14014,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14015,7 +14026,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14027,7 +14038,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14039,7 +14050,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14051,7 +14062,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14063,7 +14074,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14075,7 +14086,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14087,7 +14098,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14099,7 +14110,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14111,7 +14122,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14123,7 +14134,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14135,7 +14146,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14147,7 +14158,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14159,7 +14170,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14171,7 +14182,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14183,7 +14194,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14195,7 +14206,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14207,7 +14218,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14219,7 +14230,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14231,7 +14242,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14243,7 +14254,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14255,7 +14266,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14267,7 +14278,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14279,7 +14290,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14291,7 +14302,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14303,7 +14314,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14315,7 +14326,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14327,7 +14338,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14339,7 +14350,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14351,7 +14362,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14363,7 +14374,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14375,7 +14386,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14387,7 +14398,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14399,7 +14410,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14411,7 +14422,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14423,7 +14434,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14435,7 +14446,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14447,7 +14458,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14459,7 +14470,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14471,7 +14482,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14483,7 +14494,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14495,7 +14506,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14507,7 +14518,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -14529,7 +14540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -14539,26 +14550,25 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -14569,7 +14579,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -14580,7 +14590,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -14591,7 +14601,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -14602,7 +14612,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -14613,7 +14623,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -14624,7 +14634,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -14635,7 +14645,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -14646,7 +14656,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -14657,7 +14667,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -14668,7 +14678,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -14679,7 +14689,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -14690,7 +14700,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -14701,7 +14711,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -14712,7 +14722,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -14723,7 +14733,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -14734,7 +14744,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -14745,7 +14755,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -14756,7 +14766,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -14767,7 +14777,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -14778,7 +14788,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -14789,7 +14799,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -14800,7 +14810,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -14811,7 +14821,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -14822,7 +14832,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -14833,7 +14843,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -14844,7 +14854,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -14855,7 +14865,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -14866,7 +14876,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -14877,7 +14887,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -14888,7 +14898,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -14899,7 +14909,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -14910,7 +14920,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -14921,7 +14931,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -14932,7 +14942,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -14943,7 +14953,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -14954,7 +14964,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -14965,7 +14975,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -14976,7 +14986,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -14987,7 +14997,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -14998,7 +15008,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -15009,7 +15019,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -15020,7 +15030,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -15031,7 +15041,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -15042,7 +15052,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -15053,7 +15063,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -15064,7 +15074,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -15075,7 +15085,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -15086,7 +15096,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -15097,7 +15107,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0</v>
@@ -15108,7 +15118,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0</v>
@@ -15129,7 +15139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -15139,29 +15149,28 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -15175,7 +15184,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -15189,7 +15198,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -15203,7 +15212,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -15217,7 +15226,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -15231,7 +15240,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -15245,7 +15254,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -15259,7 +15268,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -15273,7 +15282,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -15287,7 +15296,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -15301,7 +15310,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -15315,7 +15324,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -15329,7 +15338,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -15343,7 +15352,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -15357,7 +15366,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -15371,7 +15380,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -15385,7 +15394,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -15399,7 +15408,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -15413,7 +15422,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -15427,7 +15436,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -15441,7 +15450,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -15455,7 +15464,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -15469,7 +15478,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -15483,7 +15492,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -15497,7 +15506,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -15511,7 +15520,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -15525,7 +15534,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -15539,7 +15548,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -15553,7 +15562,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -15567,7 +15576,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -15581,7 +15590,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -15595,7 +15604,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -15609,7 +15618,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -15623,7 +15632,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -15637,7 +15646,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -15651,7 +15660,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -15665,7 +15674,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -15679,7 +15688,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -15693,7 +15702,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -15707,7 +15716,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -15721,7 +15730,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -15735,7 +15744,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -15749,7 +15758,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -15763,7 +15772,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -15777,7 +15786,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -15791,7 +15800,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -15805,7 +15814,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -15819,7 +15828,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -15833,7 +15842,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -15857,279 +15866,276 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:A53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -16144,7 +16150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -16154,269 +16160,266 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -16431,7 +16434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -16441,25 +16444,22 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -16470,7 +16470,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -16481,7 +16481,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -16492,7 +16492,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -16503,7 +16503,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -16514,7 +16514,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -16525,7 +16525,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -16536,7 +16536,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -16547,7 +16547,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -16558,7 +16558,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -16569,7 +16569,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -16580,7 +16580,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -16591,7 +16591,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -16602,7 +16602,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -16613,7 +16613,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -16624,7 +16624,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -16635,7 +16635,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -16646,7 +16646,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -16657,7 +16657,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -16668,7 +16668,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -16679,7 +16679,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -16690,7 +16690,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -16701,7 +16701,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -16712,7 +16712,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -16723,7 +16723,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -16734,7 +16734,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -16745,7 +16745,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -16756,7 +16756,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -16767,7 +16767,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -16778,7 +16778,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -16789,7 +16789,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -16800,7 +16800,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -16811,7 +16811,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -16822,7 +16822,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -16833,7 +16833,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -16844,7 +16844,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -16855,7 +16855,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -16866,7 +16866,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -16877,7 +16877,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -16888,7 +16888,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -16899,7 +16899,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -16910,7 +16910,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -16921,7 +16921,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -16932,7 +16932,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -16943,7 +16943,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -16954,7 +16954,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -16965,7 +16965,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -16976,7 +16976,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -16987,7 +16987,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -17008,7 +17008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -17018,26 +17018,25 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -17048,7 +17047,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -17059,7 +17058,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -17070,7 +17069,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -17081,7 +17080,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -17092,7 +17091,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -17103,7 +17102,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -17114,7 +17113,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -17125,7 +17124,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -17136,7 +17135,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -17147,7 +17146,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -17158,7 +17157,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -17169,7 +17168,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -17180,7 +17179,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -17191,7 +17190,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -17202,7 +17201,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -17213,7 +17212,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -17224,7 +17223,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -17235,7 +17234,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -17246,7 +17245,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -17257,7 +17256,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -17268,7 +17267,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -17279,7 +17278,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -17290,7 +17289,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -17301,7 +17300,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -17312,7 +17311,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -17323,7 +17322,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -17334,7 +17333,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -17345,7 +17344,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -17356,7 +17355,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -17367,7 +17366,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -17378,7 +17377,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -17389,7 +17388,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -17400,7 +17399,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -17411,7 +17410,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -17422,7 +17421,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -17433,7 +17432,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -17444,7 +17443,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -17455,7 +17454,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -17466,7 +17465,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -17477,7 +17476,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -17488,7 +17487,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -17499,7 +17498,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -17510,7 +17509,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -17521,7 +17520,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -17532,7 +17531,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -17543,7 +17542,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -17554,7 +17553,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -17565,7 +17564,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
